--- a/src/sql/Comp-930/Insert Templates.xlsx
+++ b/src/sql/Comp-930/Insert Templates.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Add Custome" sheetId="1" r:id="rId1"/>
+    <sheet name="Add Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Add Invoice" sheetId="2" r:id="rId2"/>
+    <sheet name="Add Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Lastname</t>
   </si>
@@ -72,9 +74,6 @@
   </si>
   <si>
     <t>jnsm@email.com</t>
-  </si>
-  <si>
-    <t>(firstname, lastname, address, phone, email)</t>
   </si>
 </sst>
 </file>
@@ -410,18 +409,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="98.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -443,8 +445,15 @@
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="str">
+        <f>"insert into customer("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;")values"</f>
+        <v>insert into customer(Firstname,Lastname,Address,Phone,Email)values</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -461,11 +470,14 @@
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <f>"insert into customer Values('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
-        <v>insert into customer Values('Chisom','Okoye','34 Main Street Calgary','405-678-2354','example@email.com')</v>
+        <f>"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"'),"</f>
+        <v>('Chisom','Okoye','34 Main Street Calgary','405-678-2354','example@email.com'),</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -482,13 +494,159 @@
         <v>15</v>
       </c>
       <c r="G4" t="str">
-        <f>"insert into customer Values('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"')"</f>
-        <v>insert into customer Values('John','Smith','45 Adder Lane, Ottawa','613-879-2976','jnsm@email.com')</v>
+        <f>"('"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"'),"</f>
+        <v>('John','Smith','45 Adder Lane, Ottawa','613-879-2976','jnsm@email.com'),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G29" si="0">"('"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"'),"</f>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>('','','','',''),</v>
       </c>
     </row>
   </sheetData>
@@ -498,4 +656,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/sql/Comp-930/Insert Templates.xlsx
+++ b/src/sql/Comp-930/Insert Templates.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="4545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Add Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Add Invoice" sheetId="2" r:id="rId2"/>
     <sheet name="Add Product" sheetId="3" r:id="rId3"/>
+    <sheet name="Item" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Lastname</t>
   </si>
@@ -74,6 +75,36 @@
   </si>
   <si>
     <t>jnsm@email.com</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Order Date</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>02/01/2020</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Stock</t>
+  </si>
+  <si>
+    <t>Invoice ID</t>
+  </si>
+  <si>
+    <t>Product ID</t>
   </si>
 </sst>
 </file>
@@ -411,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,28 +691,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"insert into invoice("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;")values"</f>
+        <v>insert into invoice(Customer ID,Order Date,Total)values</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>20.67</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"'),"</f>
+        <v>('1','02/01/2020','20.67'),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"insert into product("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;",'"&amp;E2&amp;"')values"</f>
+        <v>insert into product(Product Name,Product Description,Unit Price,'Total Stock')values</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"insert into item('"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;",'"&amp;F2&amp;"')values"</f>
+        <v>insert into item('Invoice ID',Product ID,Product Name,Unit Price,'Total')values</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/sql/Comp-930/Insert Templates.xlsx
+++ b/src/sql/Comp-930/Insert Templates.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>Lastname</t>
   </si>
@@ -77,41 +77,293 @@
     <t>jnsm@email.com</t>
   </si>
   <si>
-    <t>Customer ID</t>
-  </si>
-  <si>
-    <t>Order Date</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>02/01/2020</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Total Stock</t>
-  </si>
-  <si>
-    <t>Invoice ID</t>
-  </si>
-  <si>
-    <t>Product ID</t>
+    <t>Alprazolam</t>
+  </si>
+  <si>
+    <t>Nunc mauris elit, dictum eu, eleifend</t>
+  </si>
+  <si>
+    <t>Ciprofloxacin HCl</t>
+  </si>
+  <si>
+    <t>sociis natoque penatibus et magnis dis parturient montes</t>
+  </si>
+  <si>
+    <t>Diovan HCT</t>
+  </si>
+  <si>
+    <t>Januvia</t>
+  </si>
+  <si>
+    <t>Warfarin Sodium</t>
+  </si>
+  <si>
+    <t>quam. Curabitur vel</t>
+  </si>
+  <si>
+    <t>egestas. Aliquam nec enim. Nunc ut erat. Sed</t>
+  </si>
+  <si>
+    <t>eu, eleifend nec, malesuada ut</t>
+  </si>
+  <si>
+    <t>Amoxicillin</t>
+  </si>
+  <si>
+    <t>Abilify</t>
+  </si>
+  <si>
+    <t>Simvastatin</t>
+  </si>
+  <si>
+    <t>Metformin HCl</t>
+  </si>
+  <si>
+    <t>Cephalexin</t>
+  </si>
+  <si>
+    <t>ut mi. Duis risus</t>
+  </si>
+  <si>
+    <t>Nulla tincidunt, neque vitae semper</t>
+  </si>
+  <si>
+    <t>Nullam nisl.</t>
+  </si>
+  <si>
+    <t>quis diam. Pellentesque habitant morbi</t>
+  </si>
+  <si>
+    <t>semper</t>
+  </si>
+  <si>
+    <t>Metoprolol</t>
+  </si>
+  <si>
+    <t>Tartrate</t>
+  </si>
+  <si>
+    <t>Succinate</t>
+  </si>
+  <si>
+    <t>Lorazepam</t>
+  </si>
+  <si>
+    <t>Penicillin</t>
+  </si>
+  <si>
+    <t>Omeprazole</t>
+  </si>
+  <si>
+    <t>Namenda</t>
+  </si>
+  <si>
+    <t>Promethazine</t>
+  </si>
+  <si>
+    <t>Azithromycin</t>
+  </si>
+  <si>
+    <t>Tylenol</t>
+  </si>
+  <si>
+    <t>molestie tellus. Aenean</t>
+  </si>
+  <si>
+    <t>id nunc interdum</t>
+  </si>
+  <si>
+    <t>nunc risu</t>
+  </si>
+  <si>
+    <t>non justo. Proin non massa non ante bibendum</t>
+  </si>
+  <si>
+    <t>ornare. Fusce mollis. Duis sit amet</t>
+  </si>
+  <si>
+    <t>nibh</t>
+  </si>
+  <si>
+    <t>Proin non massa non ante bibendum</t>
+  </si>
+  <si>
+    <t>non justo.</t>
+  </si>
+  <si>
+    <t>Fusce mollis. Duis sit amet</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>Product_Description</t>
+  </si>
+  <si>
+    <t>Unit_Price</t>
+  </si>
+  <si>
+    <t>Total_Stock</t>
+  </si>
+  <si>
+    <t>Customer_ID</t>
+  </si>
+  <si>
+    <t>Order_Date</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2019-06-23</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-04-13</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2019-08-25</t>
+  </si>
+  <si>
+    <t>2019-02-22</t>
+  </si>
+  <si>
+    <t>2020-01-07</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2020-10-25</t>
+  </si>
+  <si>
+    <t>2019-08-02</t>
+  </si>
+  <si>
+    <t>2019-01-22</t>
+  </si>
+  <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2019-07-28</t>
+  </si>
+  <si>
+    <t>2019-07-04</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2019-12-21</t>
+  </si>
+  <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2019-07-18</t>
+  </si>
+  <si>
+    <t>2020-05-06</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>Invoice_ID</t>
+  </si>
+  <si>
+    <t>Product_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +375,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,10 +414,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,877 +954,1012 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E103"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" t="str">
         <f>"insert into invoice("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;")values"</f>
-        <v>insert into invoice(Customer ID,Order Date,Total)values</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>insert into invoice(Customer_ID,Order_Date,Total)values</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D3">
         <v>20.67</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"'),"</f>
-        <v>('1','02/01/2020','20.67'),</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"("&amp;B3&amp;",'"&amp;C3&amp;"',"&amp;D3&amp;"),"</f>
+        <v>(1,'2020-01-02',20.67),</v>
+      </c>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>546.03</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E52" si="0">"("&amp;B4&amp;",'"&amp;C4&amp;"',"&amp;D4&amp;"),"</f>
+        <v>(1,'2020-03-03',546.03),</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>638.38</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,'2020-05-22',638.38),</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>489.24</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,'2019-06-23',489.24),</v>
+      </c>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>634.78</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(1,'2020-04-03',634.78),</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>528.79</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'2019-06-17',528.79),</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9">
+        <v>404.6</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'2020-10-20',404.6),</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>50.4</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'2020-11-19',50.4),</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>731.62</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'2019-06-03',731.62),</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>630.63</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,'2020-04-03',630.63),</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>128.22999999999999</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'2021-01-04',128.23),</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>829.45</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'2019-02-01',829.45),</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>869.32</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'2019-04-13',869.32),</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16">
+        <v>648.66</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'2019-11-04',648.66),</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17">
+        <v>586.87</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'2020-09-01',586.87),</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>142.82</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'2019-08-25',142.82),</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19">
+        <v>443.45</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'2019-02-22',443.45),</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>360.83</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'2020-01-07',360.83),</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21">
+        <v>673.84</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'2020-08-06',673.84),</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>224.33</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'2020-05-15',224.33),</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>773.24</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'2019-07-29',773.24),</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>243.73</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'2020-10-25',243.73),</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>975.96</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'2020-10-20',975.96),</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>493.08</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'2019-08-02',493.08),</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'2019-01-22',64.99),</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28">
+        <v>263.17</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'2019-03-13',263.17),</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29">
+        <v>683.23</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'2019-02-14',683.23),</v>
+      </c>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30">
+        <v>336.36</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'2019-03-13',336.36),</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31">
+        <v>929.88</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'2019-11-18',929.88),</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <v>970.16</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'2020-10-15',970.16),</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33">
+        <v>163.77000000000001</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'2019-07-28',163.77),</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>229.24</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'2019-07-04',229.24),</v>
+      </c>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35">
+        <v>827.86</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'2020-05-19',827.86),</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36">
+        <v>618.34</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'2020-12-07',618.34),</v>
+      </c>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <v>143.69</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'2020-08-18',143.69),</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>865.68</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'2020-04-03',865.68),</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39">
+        <v>578.05999999999995</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'2020-05-26',578.06),</v>
+      </c>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>708.38</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'2019-12-23',708.38),</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41">
+        <v>18.22</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'2020-11-18',18.22),</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>435.84</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'2019-12-21',435.84),</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43">
+        <v>220.35</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'2020-03-17',220.35),</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>516.25</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'2019-01-21',516.25),</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>132.72</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'2020-09-18',132.72),</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46">
+        <v>233.05</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'2019-11-04',233.05),</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>816.01</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'2019-07-18',816.01),</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>382.5</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'2020-05-06',382.5),</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49">
+        <v>759.04</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'2019-11-22',759.04),</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>320.51</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'2019-12-11',320.51),</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51">
+        <v>306.25</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'2019-05-31',306.25),</v>
+      </c>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>10</v>
-      </c>
+      <c r="C52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>233.54</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'2020-02-29',233.54),</v>
+      </c>
+      <c r="G52" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,41 +1967,464 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"insert into product("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;")values"</f>
+        <v>insert into product(Product_Name,Product_Description,Unit_Price,Total_Stock)values</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>85.78</v>
+      </c>
+      <c r="E3">
+        <v>595</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>"('"&amp;B3&amp;"','"&amp;C3&amp;"',"&amp;D3&amp;","&amp;E3&amp;"),"</f>
+        <v>('Alprazolam','Nunc mauris elit, dictum eu, eleifend',85.78,595),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4">
+        <v>68.56</v>
+      </c>
+      <c r="E4">
+        <v>985</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f t="shared" ref="F4:F22" si="0">"('"&amp;B4&amp;"','"&amp;C4&amp;"',"&amp;D4&amp;","&amp;E4&amp;"),"</f>
+        <v>('Ciprofloxacin HCl','sociis natoque penatibus et magnis dis parturient montes',68.56,985),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>20.46</v>
+      </c>
+      <c r="E5">
+        <v>876</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Diovan HCT','quam. Curabitur vel',20.46,876),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>67.61</v>
+      </c>
+      <c r="E6">
+        <v>238</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Januvia','eu, eleifend nec, malesuada ut',67.61,238),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="str">
-        <f>"insert into product("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;",'"&amp;E2&amp;"')values"</f>
-        <v>insert into product(Product Name,Product Description,Unit Price,'Total Stock')values</v>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>70.33</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Warfarin Sodium','egestas. Aliquam nec enim. Nunc ut erat. Sed',70.33,62),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>37.44</v>
+      </c>
+      <c r="E8">
+        <v>830</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Amoxicillin','quis diam. Pellentesque habitant morbi',37.44,830),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>847</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Abilify','semper',25,847),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="E10">
+        <v>965</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Simvastatin','Nullam nisl.',33.88,965),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E11">
+        <v>481</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Metformin HCl','Nulla tincidunt, neque vitae semper',33.2,481),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>62.41</v>
+      </c>
+      <c r="E12">
+        <v>927</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Cephalexin','ut mi. Duis risus',62.41,927),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>10.5</v>
+      </c>
+      <c r="E13">
+        <v>890</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Metoprolol','ornare. Fusce mollis. Duis sit amet',10.5,890),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>15.99</v>
+      </c>
+      <c r="E14">
+        <v>458</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Tartrate','Proin non massa non ante bibendum',15.99,458),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>12.69</v>
+      </c>
+      <c r="E15">
+        <v>550</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Succinate','non justo.',12.69,550),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>4.88</v>
+      </c>
+      <c r="E16">
+        <v>350</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Lorazepam','Fusce mollis. Duis sit amet',4.88,350),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>13.88</v>
+      </c>
+      <c r="E17">
+        <v>960</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Penicillin','nibh',13.88,960),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>93.5</v>
+      </c>
+      <c r="E18">
+        <v>596</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Omeprazole','ornare. Fusce mollis. Duis sit amet',93.5,596),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>56.79</v>
+      </c>
+      <c r="E19">
+        <v>232</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Namenda','non justo. Proin non massa non ante bibendum',56.79,232),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>25.02</v>
+      </c>
+      <c r="E20">
+        <v>604</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Promethazine','nunc risu',25.02,604),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>41.09</v>
+      </c>
+      <c r="E21">
+        <v>909</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Azithromycin','molestie tellus. Aenean',41.09,909),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22">
+        <v>5.99</v>
+      </c>
+      <c r="E22">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>('Tylenol','id nunc interdum',5.99,1500),</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G2"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,23 +2432,1223 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"insert into item("&amp;B2&amp;","&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;","&amp;F2&amp;")values"</f>
+        <v>insert into item(Invoice_ID,Product_ID,Product_Name,Unit_Price,Total)values</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>5.99</v>
+      </c>
+      <c r="F3">
+        <v>20.67</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>"("&amp;B3&amp;","&amp;C3&amp;",'"&amp;D3&amp;"',"&amp;E3&amp;","&amp;F3&amp;"),"</f>
+        <v>(1,20,'Tylenol',5.99,20.67),</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>85.75</v>
+      </c>
+      <c r="F4">
+        <v>546.03</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G52" si="0">"("&amp;B4&amp;","&amp;C4&amp;",'"&amp;D4&amp;"',"&amp;E4&amp;","&amp;F4&amp;"),"</f>
+        <v>(2,1,'Alprazolam',85.75,546.03),</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F5">
+        <v>638.38</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,9,'Metformin HCl',33.2,638.38),</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>12.69</v>
+      </c>
+      <c r="F6">
+        <v>489.24</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,13,'Succinate',12.69,489.24),</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>20.46</v>
+      </c>
+      <c r="F7">
+        <v>634.78</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,3,'Diovan HCT',20.46,634.78),</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>13.88</v>
+      </c>
+      <c r="F8">
+        <v>528.79</v>
+      </c>
+      <c r="G8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,15,'Penicillin',13.88,528.79),</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>56.79</v>
+      </c>
+      <c r="F9">
+        <v>404.6</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,17,'Namenda',56.79,404.6),</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>50.4</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,7,'Abilify',25,50.4),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>68.56</v>
+      </c>
+      <c r="F11">
+        <v>731.62</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,2,'Ciprofloxacin HCl',68.56,731.62),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>62.41</v>
+      </c>
+      <c r="F12">
+        <v>630.63</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,10,'Cephalexin',62.41,630.63),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>5.99</v>
+      </c>
+      <c r="F13">
+        <v>128.22999999999999</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,20,'Tylenol',5.99,128.23),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>93.5</v>
+      </c>
+      <c r="F14">
+        <v>829.45</v>
+      </c>
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(12,16,'Omeprazole',93.5,829.45),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15">
+        <v>41.09</v>
+      </c>
+      <c r="F15">
+        <v>869.32</v>
+      </c>
+      <c r="G15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(13,19,'Azithromycin',41.09,869.32),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>15.99</v>
+      </c>
+      <c r="F16">
+        <v>648.66</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(14,12,'Tartrate',15.99,648.66),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F17">
+        <v>586.87</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(15,9,'Metformin HCl',33.2,586.87),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>37.44</v>
+      </c>
+      <c r="F18">
+        <v>142.82</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(16,6,'Amoxicillin',37.44,142.82),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>20.46</v>
+      </c>
+      <c r="F19">
+        <v>443.45</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(17,3,'Diovan HCT',20.46,443.45),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>62.41</v>
+      </c>
+      <c r="F20">
+        <v>360.83</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(18,10,'Cephalexin',62.41,360.83),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>67.61</v>
+      </c>
+      <c r="F21">
+        <v>673.84</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(19,4,'Januvia',67.61,673.84),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>85.75</v>
+      </c>
+      <c r="F22">
+        <v>224.33</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(20,1,'Alprazolam',85.75,224.33),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23">
+        <v>25.02</v>
+      </c>
+      <c r="F23">
+        <v>773.24</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(21,18,'Promethazine',25.02,773.24),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>12.69</v>
+      </c>
+      <c r="F24">
+        <v>243.73</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(22,13,'Succinate',12.69,243.73),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>37.44</v>
+      </c>
+      <c r="F25">
+        <v>975.96</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(23,6,'Amoxicillin',37.44,975.96),</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>10.5</v>
+      </c>
+      <c r="F26">
+        <v>493.08</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(24,11,'Metoprolol',10.5,493.08),</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>5.99</v>
+      </c>
+      <c r="F27">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(25,20,'Tylenol',5.99,64.99),</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>85.75</v>
+      </c>
+      <c r="F28">
+        <v>263.17</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(26,1,'Alprazolam',85.75,263.17),</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>62.41</v>
+      </c>
+      <c r="F29">
+        <v>683.23</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(27,10,'Cephalexin',62.41,683.23),</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>12.69</v>
+      </c>
+      <c r="F30">
+        <v>336.36</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(28,13,'Succinate',12.69,336.36),</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>93.5</v>
+      </c>
+      <c r="F31">
+        <v>929.88</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(29,16,'Omeprazole',93.5,929.88),</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>70.33</v>
+      </c>
+      <c r="F32">
+        <v>970.16</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(30,5,'Warfarin Sodium',70.33,970.16),</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>163.77000000000001</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(31,7,'Abilify',25,163.77),</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34">
+        <v>13.88</v>
+      </c>
+      <c r="F34">
+        <v>229.24</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(32,15,'Penicillin',13.88,229.24),</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>25.02</v>
+      </c>
+      <c r="F35">
+        <v>827.86</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(33,18,'Promethazine',25.02,827.86),</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E36">
+        <v>67.61</v>
+      </c>
+      <c r="F36">
+        <v>618.34</v>
+      </c>
+      <c r="G36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(34,4,'Januvia',67.61,618.34),</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>20.46</v>
+      </c>
+      <c r="F37">
+        <v>143.69</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(35,3,'Diovan HCT',20.46,143.69),</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>93.5</v>
+      </c>
+      <c r="F38">
+        <v>865.68</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(36,16,'Omeprazole',93.5,865.68),</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>18</v>
       </c>
-      <c r="G2" t="str">
-        <f>"insert into item('"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;","&amp;E2&amp;",'"&amp;F2&amp;"')values"</f>
-        <v>insert into item('Invoice ID',Product ID,Product Name,Unit Price,'Total')values</v>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>25.02</v>
+      </c>
+      <c r="F39">
+        <v>578.05999999999995</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(37,18,'Promethazine',25.02,578.06),</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>37.44</v>
+      </c>
+      <c r="F40">
+        <v>708.38</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(38,6,'Amoxicillin',37.44,708.38),</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>4.88</v>
+      </c>
+      <c r="F41">
+        <v>18.22</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(39,14,'Lorazepam',4.88,18.22),</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>70.33</v>
+      </c>
+      <c r="F42">
+        <v>435.84</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(40,5,'Warfarin Sodium',70.33,435.84),</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>220.35</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(41,7,'Abilify',25,220.35),</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F44">
+        <v>516.25</v>
+      </c>
+      <c r="G44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(42,8,'Simvastatin',33.88,516.25),</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45">
+        <v>10.5</v>
+      </c>
+      <c r="F45">
+        <v>132.72</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(43,11,'Metoprolol',10.5,132.72),</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>12.69</v>
+      </c>
+      <c r="F46">
+        <v>233.05</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(44,13,'Succinate',12.69,233.05),</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47">
+        <v>67.61</v>
+      </c>
+      <c r="F47">
+        <v>816.01</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(45,4,'Januvia',67.61,816.01),</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F48">
+        <v>382.5</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(46,8,'Simvastatin',33.88,382.5),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49">
+        <v>70.33</v>
+      </c>
+      <c r="F49">
+        <v>759.04</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(47,5,'Warfarin Sodium',70.33,759.04),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="F50">
+        <v>320.51</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(48,13,'Simvastatin',33.88,320.51),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>37.44</v>
+      </c>
+      <c r="F51">
+        <v>306.25</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(49,6,'Amoxicillin',37.44,306.25),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52">
+        <v>12.69</v>
+      </c>
+      <c r="F52">
+        <v>233.54</v>
+      </c>
+      <c r="G52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>(50,13,'Succinate',12.69,233.54),</v>
       </c>
     </row>
   </sheetData>
